--- a/Buildings.xlsx
+++ b/Buildings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Red Ale Puppers\Desktop\Ludum Dare\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Red Ale Puppers\Documents\GitHub\Ludum-Dare-42\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8B07DB-A6BD-4EBB-A400-5E78D9171D2D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E922DB92-3C45-46E4-9E1E-084CE7934265}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12015" xr2:uid="{BE4DE589-FF1E-4F2D-A84E-17DE83589443}"/>
   </bookViews>
@@ -766,7 +766,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
         <v>4</v>
